--- a/data/trans_orig/P1410-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1410-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>103228</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>85731</v>
+        <v>85049</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>124624</v>
+        <v>121414</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1000536491957905</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08309450530488424</v>
+        <v>0.08243372196293026</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1207916277154893</v>
+        <v>0.1176807784049416</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>99</v>
@@ -765,19 +765,19 @@
         <v>103942</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>84976</v>
+        <v>84750</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>126861</v>
+        <v>126262</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07903674438766502</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06461507686202668</v>
+        <v>0.06444332862411757</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09646362873095392</v>
+        <v>0.09600831715974895</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>207</v>
@@ -786,19 +786,19 @@
         <v>207170</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>182479</v>
+        <v>182511</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>237370</v>
+        <v>235769</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08827625903400289</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07775515482631178</v>
+        <v>0.07776915897979558</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1011445653278301</v>
+        <v>0.1004626956830662</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>928495</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>907099</v>
+        <v>910309</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>945992</v>
+        <v>946674</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8999463508042095</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8792083722845107</v>
+        <v>0.8823192215950584</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9169054946951158</v>
+        <v>0.9175662780370697</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1192</v>
@@ -836,19 +836,19 @@
         <v>1211171</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1188252</v>
+        <v>1188851</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1230137</v>
+        <v>1230363</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9209632556123349</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9035363712690456</v>
+        <v>0.903991682840251</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9353849231379733</v>
+        <v>0.9355566713758819</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2122</v>
@@ -857,19 +857,19 @@
         <v>2139665</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2109465</v>
+        <v>2111066</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2164356</v>
+        <v>2164324</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9117237409659971</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.89885543467217</v>
+        <v>0.8995373043169358</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9222448451736882</v>
+        <v>0.9222308410202046</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>32120</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>22632</v>
+        <v>23001</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>44242</v>
+        <v>44930</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01896755772149821</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01336456297974731</v>
+        <v>0.01358265876745488</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02612575796810764</v>
+        <v>0.02653203436126438</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>20</v>
@@ -982,19 +982,19 @@
         <v>20553</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>12776</v>
+        <v>13495</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>32217</v>
+        <v>31170</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01294520487665286</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.00804719589656768</v>
+        <v>0.008499571531281161</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02029171546603127</v>
+        <v>0.01963225415419638</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>54</v>
@@ -1003,19 +1003,19 @@
         <v>52673</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>39671</v>
+        <v>39527</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>68180</v>
+        <v>67402</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01605342244395378</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01209090120599451</v>
+        <v>0.01204691786680573</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02077964261629041</v>
+        <v>0.02054245555424557</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1661293</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1649171</v>
+        <v>1648483</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1670781</v>
+        <v>1670412</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9810324422785018</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9738742420318921</v>
+        <v>0.9734679656387358</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9866354370202527</v>
+        <v>0.9864173412325451</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1534</v>
@@ -1053,19 +1053,19 @@
         <v>1567120</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1555456</v>
+        <v>1556503</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1574897</v>
+        <v>1574178</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9870547951233472</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9797082845339687</v>
+        <v>0.9803677458458036</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9919528041034323</v>
+        <v>0.9915004284687188</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3149</v>
@@ -1074,19 +1074,19 @@
         <v>3228413</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3212906</v>
+        <v>3213684</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3241415</v>
+        <v>3241559</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9839465775560462</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9792203573837096</v>
+        <v>0.9794575444457545</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9879090987940055</v>
+        <v>0.9879530821331944</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>14814</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8668</v>
+        <v>8406</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>25773</v>
+        <v>23880</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02686502238584704</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01571903772340829</v>
+        <v>0.0152454026280037</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04673945730898785</v>
+        <v>0.04330648236471885</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7939</v>
+        <v>8210</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.004629535040329346</v>
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01666412591963664</v>
+        <v>0.01723364393442537</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>16</v>
@@ -1220,19 +1220,19 @@
         <v>17019</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>9973</v>
+        <v>10111</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>27194</v>
+        <v>28026</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01655850049867402</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.009703541384884336</v>
+        <v>0.009837271589233811</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02645788668297062</v>
+        <v>0.02726788112090997</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>536594</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>525635</v>
+        <v>527528</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>542740</v>
+        <v>543002</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9731349776141529</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9532605426910121</v>
+        <v>0.9566935176352811</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9842809622765918</v>
+        <v>0.9847545973719963</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>450</v>
@@ -1270,7 +1270,7 @@
         <v>474206</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>468473</v>
+        <v>468202</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>476412</v>
@@ -1279,7 +1279,7 @@
         <v>0.9953704649596706</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.983335874080363</v>
+        <v>0.9827663560655749</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -1291,19 +1291,19 @@
         <v>1010801</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1000626</v>
+        <v>999794</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1017847</v>
+        <v>1017709</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.983441499501326</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9735421133170302</v>
+        <v>0.9727321188790898</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9902964586151157</v>
+        <v>0.990162728410766</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>150161</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>127786</v>
+        <v>127598</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>175363</v>
+        <v>175487</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04582912735317917</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03900027898647941</v>
+        <v>0.03894281461263312</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05352067719743866</v>
+        <v>0.05355845896557711</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>121</v>
@@ -1416,19 +1416,19 @@
         <v>126701</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>106448</v>
+        <v>105758</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>151570</v>
+        <v>152079</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03749427037481552</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03150103171217517</v>
+        <v>0.03129663667719019</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.044853782547829</v>
+        <v>0.04500453011085189</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>277</v>
@@ -1437,19 +1437,19 @@
         <v>276862</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>243463</v>
+        <v>243037</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>310138</v>
+        <v>308181</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04159742304938911</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03657946033317552</v>
+        <v>0.0365154633036894</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04659699817191171</v>
+        <v>0.046303080971237</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>3126382</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3101180</v>
+        <v>3101056</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3148757</v>
+        <v>3148945</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9541708726468209</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9464793228025611</v>
+        <v>0.9464415410344228</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9609997210135205</v>
+        <v>0.9610571853873662</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3176</v>
@@ -1487,19 +1487,19 @@
         <v>3252496</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3227627</v>
+        <v>3227118</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3272749</v>
+        <v>3273439</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9625057296251844</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.955146217452171</v>
+        <v>0.9549954698891485</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9684989682878248</v>
+        <v>0.9687033633228099</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6234</v>
@@ -1508,19 +1508,19 @@
         <v>6378879</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6345603</v>
+        <v>6347560</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6412278</v>
+        <v>6412704</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9584025769506109</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9534030018280881</v>
+        <v>0.953696919028763</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9634205396668245</v>
+        <v>0.9634845366963105</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>96014</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>77120</v>
+        <v>76919</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>115675</v>
+        <v>115825</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09851235467956587</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07912669480672836</v>
+        <v>0.07892052895530914</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1186841813088072</v>
+        <v>0.1188382945278167</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>116</v>
@@ -1872,19 +1872,19 @@
         <v>122777</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>102629</v>
+        <v>103956</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>145375</v>
+        <v>146521</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09185709663064685</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0767830121835872</v>
+        <v>0.07777573263911007</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1087632912912036</v>
+        <v>0.1096208645231134</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>204</v>
@@ -1893,19 +1893,19 @@
         <v>218792</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>192515</v>
+        <v>192540</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>250337</v>
+        <v>249517</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09466357871789692</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08329471144022822</v>
+        <v>0.08330517499647598</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1083121821948405</v>
+        <v>0.1079573800028495</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>878629</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>858968</v>
+        <v>858818</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>897523</v>
+        <v>897724</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9014876453204341</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8813158186911928</v>
+        <v>0.8811617054721833</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9208733051932717</v>
+        <v>0.9210794710446915</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1130</v>
@@ -1943,19 +1943,19 @@
         <v>1213837</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1191239</v>
+        <v>1190093</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1233985</v>
+        <v>1232658</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9081429033693531</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.891236708708796</v>
+        <v>0.8903791354768866</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9232169878164123</v>
+        <v>0.92222426736089</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1950</v>
@@ -1964,19 +1964,19 @@
         <v>2092465</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2060920</v>
+        <v>2061740</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2118742</v>
+        <v>2118717</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9053364212821031</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8916878178051595</v>
+        <v>0.8920426199971504</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9167052885597716</v>
+        <v>0.9166948250035239</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>33274</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>23195</v>
+        <v>24107</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45759</v>
+        <v>47199</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01694221999414232</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01181030549430106</v>
+        <v>0.01227491929449302</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02329940696985496</v>
+        <v>0.02403265904599146</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>22</v>
@@ -2089,19 +2089,19 @@
         <v>23853</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>15798</v>
+        <v>15412</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>36525</v>
+        <v>37555</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01359462142345449</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.009003892455056674</v>
+        <v>0.008783748961988705</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02081708726331644</v>
+        <v>0.02140364632551212</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>54</v>
@@ -2110,19 +2110,19 @@
         <v>57127</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>43282</v>
+        <v>43118</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>73745</v>
+        <v>73536</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01536266058794959</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01163947950313799</v>
+        <v>0.01159549031067355</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01983160609939806</v>
+        <v>0.01977557898575428</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1930683</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1918198</v>
+        <v>1916758</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1940762</v>
+        <v>1939850</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9830577800058576</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9767005930301452</v>
+        <v>0.9759673409540086</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.988189694505699</v>
+        <v>0.9877250807055071</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1611</v>
@@ -2160,19 +2160,19 @@
         <v>1730739</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1718067</v>
+        <v>1717037</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1738794</v>
+        <v>1739180</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9864053785765455</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9791829127366836</v>
+        <v>0.9785963536744877</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9909961075449433</v>
+        <v>0.9912162510380113</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3435</v>
@@ -2181,19 +2181,19 @@
         <v>3661422</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3644804</v>
+        <v>3645013</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3675267</v>
+        <v>3675431</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9846373394120504</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9801683939006018</v>
+        <v>0.9802244210142456</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.988360520496862</v>
+        <v>0.9884045096893265</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>3000</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>976</v>
+        <v>123</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8119</v>
+        <v>7999</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.006233924468858909</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002029166796488583</v>
+        <v>0.000255387854203047</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01687396572825097</v>
+        <v>0.01662330477983005</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -2309,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8389</v>
+        <v>6687</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.004683928518777387</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01829219575462213</v>
+        <v>0.01457930460773438</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>5</v>
@@ -2327,19 +2327,19 @@
         <v>5148</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1971</v>
+        <v>1997</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>11749</v>
+        <v>11274</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.005477522197900598</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002096810053233046</v>
+        <v>0.002124662288992102</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01250184316628058</v>
+        <v>0.01199640538777364</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>478181</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>473062</v>
+        <v>473182</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>480205</v>
+        <v>481058</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.993766075531141</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.983126034271749</v>
+        <v>0.98337669522017</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9979708332035114</v>
+        <v>0.999744612145798</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>410</v>
@@ -2377,7 +2377,7 @@
         <v>456483</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>450242</v>
+        <v>451944</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>458631</v>
@@ -2386,7 +2386,7 @@
         <v>0.9953160714812226</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.981707804245377</v>
+        <v>0.9854206953922642</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -2398,19 +2398,19 @@
         <v>934665</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>928064</v>
+        <v>928539</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>937842</v>
+        <v>937816</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9945224778020993</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9874981568337193</v>
+        <v>0.9880035946122263</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.997903189946767</v>
+        <v>0.9978753377110079</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>132288</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>111482</v>
+        <v>110947</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>157024</v>
+        <v>157015</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03868311805211034</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03259929927477664</v>
+        <v>0.03244274822064732</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04591649117916737</v>
+        <v>0.04591362675728967</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>140</v>
@@ -2523,19 +2523,19 @@
         <v>148779</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>125160</v>
+        <v>125502</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>177186</v>
+        <v>174507</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04191141028219096</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03525784537944941</v>
+        <v>0.03535423583814654</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04991398067294458</v>
+        <v>0.04915913190792589</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>263</v>
@@ -2544,19 +2544,19 @@
         <v>281067</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>246026</v>
+        <v>248439</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>313866</v>
+        <v>316185</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04032738457955851</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03529978365804864</v>
+        <v>0.0356459498845589</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0450334728489214</v>
+        <v>0.04536624403856348</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>3287494</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3262758</v>
+        <v>3262767</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3308300</v>
+        <v>3308835</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9613168819478897</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9540835088208326</v>
+        <v>0.9540863732427103</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9674007007252233</v>
+        <v>0.9675572517793526</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3151</v>
@@ -2594,19 +2594,19 @@
         <v>3401058</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3372651</v>
+        <v>3375330</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3424677</v>
+        <v>3424335</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9580885897178091</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9500860193270553</v>
+        <v>0.950840868092074</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9647421546205506</v>
+        <v>0.9646457641618534</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6230</v>
@@ -2615,19 +2615,19 @@
         <v>6688552</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6655753</v>
+        <v>6653434</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6723593</v>
+        <v>6721180</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9596726154204415</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9549665271510785</v>
+        <v>0.9546337559614363</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9647002163419514</v>
+        <v>0.964354050115441</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>58282</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45307</v>
+        <v>46149</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>73644</v>
+        <v>73583</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07726114399297887</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06006080479427846</v>
+        <v>0.0611767588690289</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0976260309121445</v>
+        <v>0.09754498516465895</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>87</v>
@@ -2979,19 +2979,19 @@
         <v>103038</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>82826</v>
+        <v>83444</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>125084</v>
+        <v>125215</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1035907850918291</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08327023264763295</v>
+        <v>0.08389187211412237</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1257553356739035</v>
+        <v>0.1258872595069891</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>150</v>
@@ -3000,19 +3000,19 @@
         <v>161319</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>137565</v>
+        <v>138769</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>189144</v>
+        <v>191003</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09223480968120829</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07865297622999243</v>
+        <v>0.07934147538430812</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1081437576361723</v>
+        <v>0.1092064584985958</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>696065</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>680703</v>
+        <v>680764</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>709040</v>
+        <v>708198</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9227388560070211</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9023739690878558</v>
+        <v>0.902455014835341</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9399391952057218</v>
+        <v>0.938823241130971</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>805</v>
@@ -3050,19 +3050,19 @@
         <v>891622</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>869576</v>
+        <v>869445</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>911834</v>
+        <v>911216</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8964092149081708</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8742446643260966</v>
+        <v>0.874112740493011</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9167297673523671</v>
+        <v>0.9161081278858777</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1504</v>
@@ -3071,19 +3071,19 @@
         <v>1587688</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1559863</v>
+        <v>1558004</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1611442</v>
+        <v>1610238</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9077651903187917</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8918562423638277</v>
+        <v>0.8907935415014043</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9213470237700074</v>
+        <v>0.9206585246156921</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>59736</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>46384</v>
+        <v>44482</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>76317</v>
+        <v>76226</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02876930506517754</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02233864575685116</v>
+        <v>0.02142262344775308</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0367547372825436</v>
+        <v>0.03671075222178203</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>41</v>
@@ -3196,19 +3196,19 @@
         <v>46120</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>34512</v>
+        <v>33146</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>63843</v>
+        <v>61784</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0231955455332761</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01735738630870916</v>
+        <v>0.0166706548542365</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.032109299908648</v>
+        <v>0.03107389889560211</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>98</v>
@@ -3217,19 +3217,19 @@
         <v>105856</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>86601</v>
+        <v>86788</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>129369</v>
+        <v>126603</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02604281916138032</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02130582086327606</v>
+        <v>0.02135170582080265</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0318275881402949</v>
+        <v>0.0311471076542155</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>2016649</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2000068</v>
+        <v>2000159</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2030001</v>
+        <v>2031903</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9712306949348225</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9632452627174565</v>
+        <v>0.963289247778218</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9776613542431488</v>
+        <v>0.978577376552247</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1867</v>
@@ -3267,19 +3267,19 @@
         <v>1942180</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1924457</v>
+        <v>1926516</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1953788</v>
+        <v>1955154</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9768044544667239</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.967890700091352</v>
+        <v>0.9689261011043979</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9826426136912911</v>
+        <v>0.9833293451457635</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3762</v>
@@ -3288,19 +3288,19 @@
         <v>3958829</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3935316</v>
+        <v>3938082</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3978084</v>
+        <v>3977897</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9739571808386197</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9681724118597049</v>
+        <v>0.9688528923457845</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9786941791367234</v>
+        <v>0.9786482941791974</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>9539</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4169</v>
+        <v>4304</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18238</v>
+        <v>18543</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01744326399865584</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.007623434541941199</v>
+        <v>0.00786978234097249</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03334877597767152</v>
+        <v>0.03390704522407086</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -3413,19 +3413,19 @@
         <v>10370</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5195</v>
+        <v>5072</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>18250</v>
+        <v>18066</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01888459116925252</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.009460656768110573</v>
+        <v>0.009236989183121887</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03323332307591621</v>
+        <v>0.03289797375917905</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>18</v>
@@ -3434,19 +3434,19 @@
         <v>19910</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>12318</v>
+        <v>11979</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>30319</v>
+        <v>31100</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01816540973682382</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01123862876659262</v>
+        <v>0.01092961958248188</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02766241056466573</v>
+        <v>0.02837560718050766</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>537347</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>528648</v>
+        <v>528343</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>542717</v>
+        <v>542582</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9825567360013442</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9666512240223284</v>
+        <v>0.9660929547759289</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9923765654580587</v>
+        <v>0.9921302176590274</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>516</v>
@@ -3484,19 +3484,19 @@
         <v>538770</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>530890</v>
+        <v>531074</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>543945</v>
+        <v>544068</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9811154088307474</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.966766676924084</v>
+        <v>0.9671020262408211</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9905393432318894</v>
+        <v>0.9907630108168781</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1009</v>
@@ -3505,19 +3505,19 @@
         <v>1076117</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1065708</v>
+        <v>1064927</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1083709</v>
+        <v>1084048</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9818345902631762</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9723375894353347</v>
+        <v>0.9716243928194924</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9887613712334075</v>
+        <v>0.9890703804175182</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>127557</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>106514</v>
+        <v>107541</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>150863</v>
+        <v>150264</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03776546972367088</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03153511463120424</v>
+        <v>0.03183935831339842</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04466552341727958</v>
+        <v>0.0444881134374727</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>138</v>
@@ -3630,19 +3630,19 @@
         <v>159528</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>132817</v>
+        <v>133902</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>187222</v>
+        <v>188183</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04516508560241382</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03760280478008154</v>
+        <v>0.03791012508825767</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05300586955557648</v>
+        <v>0.05327791121011061</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>266</v>
@@ -3651,19 +3651,19 @@
         <v>287085</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>256072</v>
+        <v>253272</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>324966</v>
+        <v>323122</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04154799537640581</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03705965660467268</v>
+        <v>0.03665441112661977</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0470302178893681</v>
+        <v>0.04676335294512837</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>3250061</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3226755</v>
+        <v>3227354</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3271104</v>
+        <v>3270077</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9622345302763291</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9553344765827204</v>
+        <v>0.9555118865625271</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9684648853687957</v>
+        <v>0.9681606416866014</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3188</v>
@@ -3701,19 +3701,19 @@
         <v>3372572</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3344878</v>
+        <v>3343917</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3399283</v>
+        <v>3398198</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9548349143975862</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9469941304444234</v>
+        <v>0.9467220887898893</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9623971952199185</v>
+        <v>0.9620898749117424</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6275</v>
@@ -3722,19 +3722,19 @@
         <v>6622633</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6584752</v>
+        <v>6586596</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6653646</v>
+        <v>6656446</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9584520046235941</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9529697821106321</v>
+        <v>0.9532366470548718</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9629403433953274</v>
+        <v>0.9633455888733804</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>73867</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>61130</v>
+        <v>60221</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>88625</v>
+        <v>90112</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1278988127101096</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1058451488410801</v>
+        <v>0.1042706641432536</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1534523858187783</v>
+        <v>0.156026440087266</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>182</v>
@@ -4086,19 +4086,19 @@
         <v>100466</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>86872</v>
+        <v>87623</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>114803</v>
+        <v>115856</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1224133037750977</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1058504865703632</v>
+        <v>0.1067647106047643</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1398821095024361</v>
+        <v>0.1411651521399405</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>285</v>
@@ -4107,19 +4107,19 @@
         <v>174333</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>156526</v>
+        <v>153903</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>194928</v>
+        <v>193969</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1246790708358299</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1119439946387433</v>
+        <v>0.1100679781990345</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1394085291124847</v>
+        <v>0.1387223977903044</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>503675</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>488917</v>
+        <v>487430</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>516412</v>
+        <v>517321</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8721011872898905</v>
+        <v>0.8721011872898904</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8465476141812219</v>
+        <v>0.8439735599127339</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8941548511589199</v>
+        <v>0.895729335856746</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1243</v>
@@ -4157,19 +4157,19 @@
         <v>720243</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>705906</v>
+        <v>704853</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>733837</v>
+        <v>733086</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8775866962249023</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8601178904975642</v>
+        <v>0.8588348478600594</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8941495134296369</v>
+        <v>0.8932352893952357</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1830</v>
@@ -4178,19 +4178,19 @@
         <v>1223918</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1203323</v>
+        <v>1204282</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1241725</v>
+        <v>1244348</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8753209291641701</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8605914708875152</v>
+        <v>0.8612776022096954</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8880560053612565</v>
+        <v>0.8899320218009653</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>85237</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>71265</v>
+        <v>70243</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>105516</v>
+        <v>104141</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03825161215859163</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03198172726070633</v>
+        <v>0.03152272937591379</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04735253831495078</v>
+        <v>0.04673520745907178</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>72</v>
@@ -4303,19 +4303,19 @@
         <v>45051</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>35574</v>
+        <v>35569</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>58757</v>
+        <v>59589</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.0207773196795694</v>
+        <v>0.02077731967956939</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01640662895513342</v>
+        <v>0.01640414541020432</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02709836144528588</v>
+        <v>0.0274820209993822</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>172</v>
@@ -4324,19 +4324,19 @@
         <v>130288</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>110092</v>
+        <v>109129</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>154069</v>
+        <v>151105</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02963374018534005</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02504020841785242</v>
+        <v>0.02482120344068636</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03504271093147952</v>
+        <v>0.03436841703616448</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>2143080</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2122801</v>
+        <v>2124176</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2157052</v>
+        <v>2158074</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9617483878414085</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9526474616850493</v>
+        <v>0.953264792540928</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9680182727392936</v>
+        <v>0.9684772706240863</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2844</v>
@@ -4374,19 +4374,19 @@
         <v>2123246</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2109540</v>
+        <v>2108708</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2132723</v>
+        <v>2132728</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9792226803204308</v>
+        <v>0.9792226803204306</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9729016385547142</v>
+        <v>0.9725179790006175</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9835933710448667</v>
+        <v>0.9835958545897956</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4734</v>
@@ -4395,19 +4395,19 @@
         <v>4266327</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4242546</v>
+        <v>4245510</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4286523</v>
+        <v>4287486</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.97036625981466</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9649572890685209</v>
+        <v>0.9656315829638357</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9749597915821478</v>
+        <v>0.9751787965593137</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>31274</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>23093</v>
+        <v>23115</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>42329</v>
+        <v>43368</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.04394996586180799</v>
+        <v>0.04394996586180798</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03245320091592915</v>
+        <v>0.03248379405082319</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05948533745236599</v>
+        <v>0.06094511495169426</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>28</v>
@@ -4520,19 +4520,19 @@
         <v>17511</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11935</v>
+        <v>11936</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>25150</v>
+        <v>24855</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02385036440795603</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01625624822736496</v>
+        <v>0.01625678302850558</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03425571237520463</v>
+        <v>0.03385320363392317</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>68</v>
@@ -4541,19 +4541,19 @@
         <v>48785</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>38669</v>
+        <v>37312</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>62718</v>
+        <v>61117</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03374301769670342</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02674594133635115</v>
+        <v>0.02580747826841872</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04337974367089333</v>
+        <v>0.04227292431347996</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>680313</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>669258</v>
+        <v>668219</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>688494</v>
+        <v>688472</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9560500341381921</v>
+        <v>0.9560500341381918</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9405146625476341</v>
+        <v>0.9390548850483059</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9675467990840709</v>
+        <v>0.9675162059491768</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>975</v>
@@ -4591,19 +4591,19 @@
         <v>716684</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>709045</v>
+        <v>709340</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>722260</v>
+        <v>722259</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9761496355920439</v>
+        <v>0.976149635592044</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9657442876247956</v>
+        <v>0.9661467963660767</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9837437517726351</v>
+        <v>0.9837432169714946</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1616</v>
@@ -4612,19 +4612,19 @@
         <v>1396997</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1383064</v>
+        <v>1384665</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1407113</v>
+        <v>1408470</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9662569823032967</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9566202563291065</v>
+        <v>0.95772707568652</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9732540586636487</v>
+        <v>0.9741925217315814</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>190378</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>165638</v>
+        <v>167194</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>217158</v>
+        <v>220823</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05412389187752905</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04709043610618938</v>
+        <v>0.04753280021449181</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0617374987474827</v>
+        <v>0.0627792434656689</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>282</v>
@@ -4737,19 +4737,19 @@
         <v>163028</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>142791</v>
+        <v>143199</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>184682</v>
+        <v>184519</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04378703598267512</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03835175486574779</v>
+        <v>0.03846137434913417</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04960302987000283</v>
+        <v>0.04955916299307</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>525</v>
@@ -4758,19 +4758,19 @@
         <v>353406</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>320182</v>
+        <v>323626</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>387640</v>
+        <v>384724</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04880859458495584</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04422003022825936</v>
+        <v>0.04469571329133574</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05353664073675533</v>
+        <v>0.05313393567157044</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>3327068</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3300288</v>
+        <v>3296623</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3351808</v>
+        <v>3350252</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9458761081224709</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9382625012525171</v>
+        <v>0.9372207565343311</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9529095638938107</v>
+        <v>0.9524671997855082</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5062</v>
@@ -4808,19 +4808,19 @@
         <v>3560173</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3538519</v>
+        <v>3538682</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3580410</v>
+        <v>3580002</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9562129640173248</v>
+        <v>0.9562129640173249</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9503969701299969</v>
+        <v>0.9504408370069298</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9616482451342521</v>
+        <v>0.9615386256508658</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8180</v>
@@ -4829,19 +4829,19 @@
         <v>6887242</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6853008</v>
+        <v>6855924</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6920466</v>
+        <v>6917022</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9511914054150442</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9464633592632449</v>
+        <v>0.9468660643284296</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9557799697717408</v>
+        <v>0.9553042867086642</v>
       </c>
     </row>
     <row r="15">
